--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1375987.223066352</v>
+        <v>-1378366.894268378</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836232</v>
       </c>
     </row>
     <row r="8">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>105.8333239945106</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>48.67842860807725</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>200.8297634510974</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>22.35153719005456</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>141.3236091729814</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>43.1542554700116</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>215.5278181602327</v>
       </c>
     </row>
     <row r="6">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>155.4526127311943</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>61.75622389394824</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>70.50725509053696</v>
       </c>
       <c r="U8" t="n">
-        <v>62.15398405320607</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>86.11283245544976</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>196.7218456862862</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>104.3314347280263</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>126.095523708391</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1664,7 +1664,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>132.3569894857615</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>98.11258468996162</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>33.79426090525245</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>113.2541744914001</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,16 +2090,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292623</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851119</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247066</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734100762</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.431198642871019</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>120.6353666620203</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004747</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>116.7053164022063</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396202</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2770,13 +2770,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>208.8377218582547</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>120.635366662023</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433872</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572849</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124492</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433872</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572849</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124493</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
         <v>120.2716844800353</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433872</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="38">
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433864</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572818</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I40" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3724,7 +3724,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
         <v>171.6095167335022</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>951.4629090302697</v>
+        <v>912.9493581045808</v>
       </c>
       <c r="C2" t="n">
-        <v>951.4629090302697</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D2" t="n">
-        <v>593.1972104235191</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>207.4089578252748</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2647.978961111074</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2647.978961111074</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2394.217175749165</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>2063.154288405594</v>
       </c>
       <c r="W2" t="n">
-        <v>1540.921096014692</v>
+        <v>2063.154288405594</v>
       </c>
       <c r="X2" t="n">
-        <v>1540.921096014692</v>
+        <v>1689.688530144514</v>
       </c>
       <c r="Y2" t="n">
-        <v>1338.062749094391</v>
+        <v>1299.549198168703</v>
       </c>
     </row>
     <row r="3">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587809</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2090.781606227855</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2477.381446291977</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>2477.381446291977</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>2477.381446291977</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
         <v>266.2060027641987</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005476</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>411.0644718652463</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1345.301239238533</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
         <v>548.527081850681</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2394.723464276485</v>
       </c>
       <c r="U8" t="n">
-        <v>2415.73262191634</v>
+        <v>2394.723464276485</v>
       </c>
       <c r="V8" t="n">
-        <v>2084.669734572769</v>
+        <v>2394.723464276485</v>
       </c>
       <c r="W8" t="n">
-        <v>1731.901079302655</v>
+        <v>2041.954809006371</v>
       </c>
       <c r="X8" t="n">
-        <v>1731.901079302655</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="Y8" t="n">
-        <v>1731.901079302655</v>
+        <v>1668.489050745291</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610022</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610022</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
         <v>850.213983755162</v>
@@ -5045,22 +5045,22 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1772.421240554552</v>
       </c>
       <c r="M11" t="n">
-        <v>2707.641918722172</v>
+        <v>2750.97154338438</v>
       </c>
       <c r="N11" t="n">
-        <v>3254.420735780954</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.393206660291</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5069,22 +5069,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E12" t="n">
         <v>487.9678785494859</v>
@@ -5109,7 +5109,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>823.6560115477723</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C13" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1667.240599230347</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>1377.823429193387</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>1149.833878295369</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>929.0412991518393</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="14">
@@ -5276,25 +5276,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1772.421240554552</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2750.97154338438</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O14" t="n">
-        <v>4010.914672075805</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5303,13 +5303,13 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1023.336921276364</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="C16" t="n">
-        <v>854.4007383484569</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D16" t="n">
-        <v>704.2840989361212</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E16" t="n">
-        <v>556.371005353728</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,49 +5437,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442082</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927061</v>
+        <v>661.2306482927042</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892255</v>
+        <v>1005.387693892253</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.79607059812</v>
+        <v>1346.796070598118</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518533</v>
+        <v>1646.125669518531</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952193</v>
+        <v>1878.733169952191</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104707</v>
+        <v>1956.343466104706</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104707</v>
+        <v>1866.513008862234</v>
       </c>
       <c r="S16" t="n">
-        <v>1822.649537331211</v>
+        <v>1674.82712468906</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.649537331211</v>
+        <v>1453.060509258586</v>
       </c>
       <c r="U16" t="n">
-        <v>1533.546670456855</v>
+        <v>1163.95764238423</v>
       </c>
       <c r="V16" t="n">
-        <v>1533.546670456855</v>
+        <v>909.2731541783427</v>
       </c>
       <c r="W16" t="n">
-        <v>1244.129500419894</v>
+        <v>619.8559841413821</v>
       </c>
       <c r="X16" t="n">
-        <v>1244.129500419894</v>
+        <v>520.752363242431</v>
       </c>
       <c r="Y16" t="n">
-        <v>1023.336921276364</v>
+        <v>520.752363242431</v>
       </c>
     </row>
     <row r="17">
@@ -5507,34 +5507,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1650.184003770974</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3831.983903964022</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4226.7582703212</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5598,7 +5598,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>596.6625674470428</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C19" t="n">
-        <v>427.7263845191359</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D19" t="n">
-        <v>277.6097451068001</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>129.696651524407</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>129.696651524407</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5701,22 +5701,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W19" t="n">
-        <v>999.1036114208126</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X19" t="n">
-        <v>999.1036114208126</v>
+        <v>817.0549007624069</v>
       </c>
       <c r="Y19" t="n">
-        <v>778.3110322772825</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="20">
@@ -5732,46 +5732,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074193</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972647</v>
       </c>
       <c r="L20" t="n">
-        <v>1614.698881814246</v>
+        <v>1395.429061104441</v>
       </c>
       <c r="M20" t="n">
-        <v>2593.249184644075</v>
+        <v>2373.979363934268</v>
       </c>
       <c r="N20" t="n">
-        <v>3573.001456870722</v>
+        <v>2920.758180993049</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.722831322503</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.49719767968</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973128</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161858</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549346</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494791</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763641</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089822</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468496</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390114</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193579</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320224</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454337</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008791</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426845</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902947</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549546</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142061</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635541</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313396</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447812</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216069</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487868</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282335</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517381</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>540.4807149410336</v>
+        <v>217.4149401676068</v>
       </c>
       <c r="C22" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
         <v>95.56103444839442</v>
@@ -5908,52 +5908,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442058</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927015</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.38769389225</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598114</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518527</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952186</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104701</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862228</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689055</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258581</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.890966501056</v>
+        <v>1163.957642384224</v>
       </c>
       <c r="V22" t="n">
-        <v>1288.206478295169</v>
+        <v>909.2731541783372</v>
       </c>
       <c r="W22" t="n">
-        <v>998.7893082582084</v>
+        <v>619.8559841413767</v>
       </c>
       <c r="X22" t="n">
-        <v>770.7997573601911</v>
+        <v>619.8559841413767</v>
       </c>
       <c r="Y22" t="n">
-        <v>550.0071782166609</v>
+        <v>399.0634049978465</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5972,67 +5972,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>360.1279170711164</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>1014.851249206416</v>
       </c>
       <c r="L23" t="n">
-        <v>1650.184003770974</v>
+        <v>1465.885462454824</v>
       </c>
       <c r="M23" t="n">
-        <v>2274.668463554307</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N23" t="n">
-        <v>3254.420735780953</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,70 +6042,70 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282341</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>528.0379765536123</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="C25" t="n">
-        <v>410.1538185715858</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="D25" t="n">
-        <v>410.1538185715858</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="E25" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X25" t="n">
-        <v>709.6864413838521</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y25" t="n">
-        <v>709.6864413838521</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="26">
@@ -6203,73 +6203,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277727</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1849.525439218846</v>
+        <v>1088.893283004707</v>
       </c>
       <c r="M26" t="n">
-        <v>2383.05734389077</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N26" t="n">
-        <v>3362.809616117416</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6303,10 +6303,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L27" t="n">
         <v>794.2006632320239</v>
@@ -6315,10 +6315,10 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
         <v>2436.460902902952</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>412.4103109586945</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
         <v>95.56103444839442</v>
@@ -6382,13 +6382,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6400,34 +6400,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501055</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1042.840905830482</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W28" t="n">
-        <v>1042.840905830482</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X28" t="n">
-        <v>814.8513549324643</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.0587757889342</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6467,22 +6467,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1971.087962216427</v>
+        <v>1784.466183544591</v>
       </c>
       <c r="M29" t="n">
-        <v>2949.638265046256</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N29" t="n">
-        <v>3496.417082105038</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O29" t="n">
-        <v>3999.389552984375</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
-        <v>4394.163919341553</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
@@ -6543,37 +6543,37 @@
         <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C31" t="n">
-        <v>667.0286178416713</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D31" t="n">
-        <v>564.3616113774088</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E31" t="n">
-        <v>463.898150743089</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F31" t="n">
-        <v>364.4578361932519</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2046325160441</v>
+        <v>244.204632516045</v>
       </c>
       <c r="H31" t="n">
-        <v>145.4370786819752</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6625,7 +6625,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L31" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M31" t="n">
         <v>1191.409234901878</v>
@@ -6658,13 +6658,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W31" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X31" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.7139997036714</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,25 +6698,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2883.993034926781</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3763.957685256236</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188665</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6777,34 +6777,34 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416713</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774088</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E34" t="n">
-        <v>463.898150743089</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932519</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160441</v>
+        <v>244.204632516045</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819752</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
@@ -6895,13 +6895,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X34" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036714</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6923,40 +6923,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1797.117834600129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2330.649739272054</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3757.393206660291</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6968,19 +6968,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E36" t="n">
         <v>487.9678785494859</v>
@@ -7005,7 +7005,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G37" t="n">
         <v>244.2046325160447</v>
@@ -7099,7 +7099,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L37" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M37" t="n">
         <v>1191.409234901878</v>
@@ -7120,7 +7120,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T37" t="n">
         <v>1967.452490122057</v>
@@ -7132,13 +7132,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036719</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,28 +7172,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>901.0652231938166</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1352.099436442225</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2330.649739272054</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N38" t="n">
-        <v>2877.428556330836</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O38" t="n">
-        <v>3757.393206660291</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
@@ -7251,10 +7251,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
         <v>794.2006632320242</v>
@@ -7269,22 +7269,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215049</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160446</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7333,10 +7333,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,7 +7351,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
@@ -7363,19 +7363,19 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036713</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176192</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L41" t="n">
         <v>1650.184003770974</v>
       </c>
       <c r="M41" t="n">
-        <v>2383.05734389077</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N41" t="n">
-        <v>3362.809616117416</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7479,7 +7479,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,22 +7488,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
         <v>2436.460902902953</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7573,7 +7573,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,7 +7588,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7649,49 +7649,49 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1650.184003770974</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M44" t="n">
-        <v>2628.734306600803</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N44" t="n">
-        <v>3175.513123659585</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O44" t="n">
-        <v>3678.485594538922</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7701,64 +7701,64 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C46" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932528</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
       </c>
       <c r="N46" t="n">
-        <v>1579.322996860149</v>
+        <v>1579.32299686015</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.157981032969</v>
+        <v>1925.15798103297</v>
       </c>
       <c r="P46" t="n">
         <v>2204.270866719035</v>
@@ -7834,10 +7834,10 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V46" t="n">
         <v>1518.56440093796</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8693,10 +8693,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>386.0843734984076</v>
       </c>
       <c r="M11" t="n">
-        <v>374.1693948021951</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8705,13 +8705,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>216.9877583263338</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>67.53663776704263</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>32.86979469803862</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>180.738149607862</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,28 +9401,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>226.7688596193112</v>
+        <v>329.4296048068373</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>6.902922677909373e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>76.45227440777433</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>91.87126778930087</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9656,10 +9656,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>294.8707872801669</v>
+        <v>19.79750571619354</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,13 +10115,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>229.1543674071817</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>77.35795430877127</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P32" t="n">
-        <v>249.4515018379481</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>411.0304280899001</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>285.6623071682325</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>60.66917680434142</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,22 +11066,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>201.3549853008803</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>251.1867816683983</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,28 +11297,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>248.8400772687158</v>
       </c>
       <c r="P44" t="n">
-        <v>189.1883762200309</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>259.439567776497</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22592,10 +22592,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>185.4081752049562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>64.68816619104278</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>84.38604621605575</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75.50054545391097</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>92.48912964370382</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.41203584568035</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>127.5970706990755</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>132.2315473537758</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>112.4554808976371</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>170.4007815390663</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>46.61145443660756</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.3524204098382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>50.54150469642158</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>71.67627119164602</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>43.29992146557331</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-1.014743972193151e-13</v>
       </c>
       <c r="I31" t="n">
-        <v>6.465938895416912e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-2.557953848736361e-13</v>
       </c>
       <c r="I34" t="n">
-        <v>6.323830348264892e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1310496.365925757</v>
+        <v>1310496.365925756</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1310496.365925757</v>
+        <v>1310496.365925756</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1310496.365925757</v>
+        <v>1310496.365925756</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1310496.365925757</v>
+        <v>1310496.365925756</v>
       </c>
     </row>
     <row r="16">
@@ -26317,25 +26317,25 @@
         <v>143682.3097262497</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="E2" t="n">
+        <v>138978.6254104442</v>
+      </c>
+      <c r="F2" t="n">
+        <v>138978.6254104442</v>
+      </c>
+      <c r="G2" t="n">
+        <v>138978.625410444</v>
+      </c>
+      <c r="H2" t="n">
         <v>138978.6254104441</v>
       </c>
-      <c r="F2" t="n">
-        <v>138978.6254104441</v>
-      </c>
-      <c r="G2" t="n">
-        <v>138978.6254104441</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>138978.6254104442</v>
       </c>
-      <c r="I2" t="n">
-        <v>138978.6254104441</v>
-      </c>
       <c r="J2" t="n">
-        <v>138978.6254104441</v>
+        <v>138978.625410444</v>
       </c>
       <c r="K2" t="n">
         <v>143682.3097262497</v>
@@ -26347,7 +26347,7 @@
         <v>143682.3097262497</v>
       </c>
       <c r="N2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262498</v>
       </c>
       <c r="O2" t="n">
         <v>143682.3097262497</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,13 +26384,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.198087147713523e-09</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>37580.10929487402</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,13 +26399,13 @@
         <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>6.252776074688882e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>37580.10929487402</v>
+        <v>37580.10929487405</v>
       </c>
     </row>
     <row r="4">
@@ -26418,13 +26418,13 @@
         <v>137670.0716798393</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918989</v>
       </c>
       <c r="F4" t="n">
         <v>18148.49231918994</v>
@@ -26433,28 +26433,28 @@
         <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231919007</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
         <v>33605.65329740898</v>
       </c>
       <c r="L4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="M4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.653297409</v>
       </c>
       <c r="P4" t="n">
         <v>33605.65329740899</v>
@@ -26485,10 +26485,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371361</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-680820.0079004247</v>
+        <v>-681020.0834528372</v>
       </c>
       <c r="C6" t="n">
+        <v>-122525.4551942876</v>
+      </c>
+      <c r="D6" t="n">
         <v>-122525.4551942877</v>
       </c>
-      <c r="D6" t="n">
-        <v>-122525.4551942878</v>
-      </c>
       <c r="E6" t="n">
-        <v>-702930.7991558661</v>
+        <v>-702997.9946460921</v>
       </c>
       <c r="F6" t="n">
-        <v>24446.61483754047</v>
+        <v>24379.41934731477</v>
       </c>
       <c r="G6" t="n">
-        <v>24446.61483754053</v>
+        <v>24379.41934731462</v>
       </c>
       <c r="H6" t="n">
-        <v>24446.61483754062</v>
+        <v>24379.41934731599</v>
       </c>
       <c r="I6" t="n">
-        <v>24446.61483754052</v>
+        <v>24379.41934731362</v>
       </c>
       <c r="J6" t="n">
-        <v>-151976.6043550525</v>
+        <v>-152043.7998452783</v>
       </c>
       <c r="K6" t="n">
-        <v>-27836.12388013535</v>
+        <v>-27836.12388013539</v>
       </c>
       <c r="L6" t="n">
-        <v>9743.985414738592</v>
+        <v>9743.985414738621</v>
       </c>
       <c r="M6" t="n">
         <v>-119898.3294242062</v>
       </c>
       <c r="N6" t="n">
-        <v>9743.985414738519</v>
+        <v>9743.98541473868</v>
       </c>
       <c r="O6" t="n">
-        <v>9743.985414738665</v>
+        <v>9743.985414738563</v>
       </c>
       <c r="P6" t="n">
-        <v>-27836.12388013543</v>
+        <v>-27836.12388013546</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26753,7 +26753,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593296</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-1.8325154437358e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>125.7372842008943</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>83.92730682716957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>306.0867132474014</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>170.7101204958209</v>
       </c>
     </row>
     <row r="6">
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27822,25 +27822,25 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>56.69292621882457</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>163.9534314950889</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>145.9410652671208</v>
       </c>
       <c r="U8" t="n">
-        <v>189.0701834550832</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>81.13398864317807</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,13 +28062,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>28.31325977179807</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28509,10 +28509,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="L16" t="n">
-        <v>3.534950110406498e-12</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681591</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284466</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974797</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953982</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.28113760038</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623182</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574981</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095011</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099046</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746403</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781682</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563564</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806935</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451117</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345272</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502563</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798528</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752244</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026434</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353151</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138788</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233465</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837915</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970241</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002919</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987482</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905539</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238309</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898482</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462213</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430534</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311877</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742009</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297388</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702021</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098815</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316427</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.724773788311</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085996</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802165</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895878</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712201</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.2475727055303</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112282</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780293</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,37 +33014,37 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33053,7 +33053,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33102,16 +33102,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
         <v>300.7247737883114</v>
@@ -33120,19 +33120,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780294</v>
@@ -33509,7 +33509,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34463,7 +34463,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,10 +35264,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,10 +35413,10 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>841.6744878907398</v>
       </c>
       <c r="M11" t="n">
-        <v>913.0905106324219</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
@@ -35425,13 +35425,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>672.577872718666</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>575.5896386552618</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35805,10 +35805,10 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443214</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721702017</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
         <v>347.6333793934838</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>571.7909105282654</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>431.5324544115815</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687119</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865553995</v>
       </c>
       <c r="L20" t="n">
-        <v>682.3589740116433</v>
+        <v>785.0197191991682</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230579</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129101</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509632</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193707</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636234</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152068</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597674</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609561</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340046</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013282</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004582</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525797</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859617</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127267</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.578416613066</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443192</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701976</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934833</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675396</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226393</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.95707114511</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789337</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>267.2392753764868</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>630.7923836195276</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407862</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>661.336699126565</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>750.4609016724987</v>
+        <v>475.3876201085255</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248953</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882189</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193715</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.109295463624</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222467</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,13 +36835,13 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>684.7444817995139</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
@@ -36850,10 +36850,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>328.1522591124908</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37081,13 +37081,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P32" t="n">
-        <v>648.21348805732</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37157,7 +37157,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>866.6205424822323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37321,13 +37321,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37470,7 +37470,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
         <v>391.8320827861326</v>
@@ -37479,7 +37479,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>622.853593723633</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>599.5902926345682</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37710,16 +37710,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>740.2761011311069</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>803.4886170813098</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38017,28 +38017,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>756.893078156935</v>
       </c>
       <c r="P44" t="n">
-        <v>587.9503624394027</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
@@ -38193,7 +38193,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
